--- a/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_68.xlsx
@@ -487,7 +487,10 @@
         </is>
       </c>
       <c r="G3">
-        <v>8.4</v>
+        <v>4.2</v>
+      </c>
+      <c r="H3">
+        <v>492</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1304,7 +1307,10 @@
         </is>
       </c>
       <c r="G23">
-        <v>7.962</v>
+        <v>4.062</v>
+      </c>
+      <c r="H23">
+        <v>426</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1465,7 +1471,7 @@
         </is>
       </c>
       <c r="G27">
-        <v>1.844</v>
+        <v>1.813</v>
       </c>
       <c r="H27">
         <v>133</v>
@@ -1922,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="39">
@@ -1963,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="40">
@@ -2004,7 +2010,7 @@
         <v>3038</v>
       </c>
       <c r="I40">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="41">
@@ -2045,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="I41">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="42">
@@ -2086,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="43">
@@ -2127,7 +2133,7 @@
         <v>73</v>
       </c>
       <c r="I43">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="44">
@@ -2168,7 +2174,7 @@
         <v>87</v>
       </c>
       <c r="I44">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="45">
@@ -2209,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="I45">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="46">
@@ -2247,10 +2253,10 @@
         <v>0.037</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="47">
@@ -2291,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="48">
@@ -2332,7 +2338,7 @@
         <v>96</v>
       </c>
       <c r="I48">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="49">
@@ -2373,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="I49">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="50">
@@ -2414,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="I50">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="51">
@@ -2455,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="I51">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="52">
@@ -2496,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="53">
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="54">
@@ -2578,7 +2584,7 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="55">
@@ -2619,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="56">
@@ -2660,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="57">
@@ -2701,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I57">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="58">
@@ -2742,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="I58">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="59">
@@ -2783,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="I59">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="60">
@@ -2821,10 +2827,10 @@
         <v>1.507</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I60">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
     <row r="61">
@@ -2862,10 +2868,10 @@
         <v>0.033</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I61">
-        <v>97.94871428571427</v>
+        <v>99.11028571428572</v>
       </c>
     </row>
   </sheetData>
